--- a/examples/example_excel.xlsx
+++ b/examples/example_excel.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14355" windowHeight="5445"/>
+    <workbookView xWindow="1740" yWindow="2960" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>type</t>
   </si>
@@ -108,13 +113,19 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>varUniverse</t>
+  </si>
+  <si>
+    <t>varDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,24 +449,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +485,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -489,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -503,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -517,7 +534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -539,18 +556,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -596,5 +618,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>